--- a/Code/Results/Cases/Case_5_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_210/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001123059880897</v>
+        <v>1.028185895818088</v>
       </c>
       <c r="D2">
-        <v>1.019189721827635</v>
+        <v>1.033314673539573</v>
       </c>
       <c r="E2">
-        <v>1.007393766300544</v>
+        <v>1.028181577463523</v>
       </c>
       <c r="F2">
-        <v>0.9780379752935825</v>
+        <v>1.026732192368816</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044109121426104</v>
+        <v>1.035243628196483</v>
       </c>
       <c r="J2">
-        <v>1.023270232229561</v>
+        <v>1.03333961427441</v>
       </c>
       <c r="K2">
-        <v>1.030388033280699</v>
+        <v>1.036117378245251</v>
       </c>
       <c r="L2">
-        <v>1.018751046378941</v>
+        <v>1.030999140757189</v>
       </c>
       <c r="M2">
-        <v>0.989811999230145</v>
+        <v>1.029553980392997</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005769399294641</v>
+        <v>1.029130216393325</v>
       </c>
       <c r="D3">
-        <v>1.0227056155986</v>
+        <v>1.034040460955386</v>
       </c>
       <c r="E3">
-        <v>1.011111567319996</v>
+        <v>1.028983265508087</v>
       </c>
       <c r="F3">
-        <v>0.9853619451515274</v>
+        <v>1.028309723001516</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045758350049049</v>
+        <v>1.035506269172334</v>
       </c>
       <c r="J3">
-        <v>1.026104010832151</v>
+        <v>1.033924463486449</v>
       </c>
       <c r="K3">
-        <v>1.03305598827274</v>
+        <v>1.03665234238061</v>
       </c>
       <c r="L3">
-        <v>1.021604220618256</v>
+        <v>1.031608727094165</v>
       </c>
       <c r="M3">
-        <v>0.9961856134592887</v>
+        <v>1.030937004167045</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008706200884794</v>
+        <v>1.029741101974341</v>
       </c>
       <c r="D4">
-        <v>1.024929283317764</v>
+        <v>1.034509842357398</v>
       </c>
       <c r="E4">
-        <v>1.013467130436127</v>
+        <v>1.029502257531263</v>
       </c>
       <c r="F4">
-        <v>0.9899792885806414</v>
+        <v>1.029330308996242</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046788665854408</v>
+        <v>1.035674727158372</v>
       </c>
       <c r="J4">
-        <v>1.027889792952828</v>
+        <v>1.034302147432106</v>
       </c>
       <c r="K4">
-        <v>1.0347358633993</v>
+        <v>1.036997581361546</v>
       </c>
       <c r="L4">
-        <v>1.023405691428204</v>
+        <v>1.032002766181187</v>
       </c>
       <c r="M4">
-        <v>1.000200178509809</v>
+        <v>1.031831258504808</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009924819176195</v>
+        <v>1.029997881914666</v>
       </c>
       <c r="D5">
-        <v>1.025852273731302</v>
+        <v>1.034707109708846</v>
       </c>
       <c r="E5">
-        <v>1.014445883442687</v>
+        <v>1.029720500419358</v>
       </c>
       <c r="F5">
-        <v>0.9918927873030479</v>
+        <v>1.029759325292152</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047213255832718</v>
+        <v>1.035745190567728</v>
       </c>
       <c r="J5">
-        <v>1.028629500025875</v>
+        <v>1.034460745724082</v>
       </c>
       <c r="K5">
-        <v>1.035431347219205</v>
+        <v>1.037142499865465</v>
       </c>
       <c r="L5">
-        <v>1.024152721857025</v>
+        <v>1.032168323436851</v>
       </c>
       <c r="M5">
-        <v>1.001862969775331</v>
+        <v>1.032207051008634</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010128510270331</v>
+        <v>1.030040994272115</v>
       </c>
       <c r="D6">
-        <v>1.026006566285288</v>
+        <v>1.034740228201565</v>
       </c>
       <c r="E6">
-        <v>1.014609557605029</v>
+        <v>1.029757147790179</v>
       </c>
       <c r="F6">
-        <v>0.9922124937870811</v>
+        <v>1.029831356943114</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047284052117494</v>
+        <v>1.035757000788077</v>
       </c>
       <c r="J6">
-        <v>1.028753064738645</v>
+        <v>1.034487364521461</v>
       </c>
       <c r="K6">
-        <v>1.035547503325648</v>
+        <v>1.037166819419551</v>
       </c>
       <c r="L6">
-        <v>1.024277558225525</v>
+        <v>1.032196115551997</v>
       </c>
       <c r="M6">
-        <v>1.002140733885042</v>
+        <v>1.032270139444748</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008722546184857</v>
+        <v>1.02974453322301</v>
       </c>
       <c r="D7">
-        <v>1.024941662301341</v>
+        <v>1.03451247849195</v>
       </c>
       <c r="E7">
-        <v>1.013480253270022</v>
+        <v>1.029505173473401</v>
       </c>
       <c r="F7">
-        <v>0.9900049634985109</v>
+        <v>1.029336041675722</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046794372520996</v>
+        <v>1.035675670094067</v>
       </c>
       <c r="J7">
-        <v>1.027899719778232</v>
+        <v>1.03430426733752</v>
       </c>
       <c r="K7">
-        <v>1.034745198174585</v>
+        <v>1.036999518634075</v>
       </c>
       <c r="L7">
-        <v>1.023415713278464</v>
+        <v>1.032004978745682</v>
       </c>
       <c r="M7">
-        <v>1.000222493118622</v>
+        <v>1.031836280454168</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002708159512817</v>
+        <v>1.028505065213616</v>
       </c>
       <c r="D8">
-        <v>1.020388849574266</v>
+        <v>1.033560008674356</v>
       </c>
       <c r="E8">
-        <v>1.008660880423468</v>
+        <v>1.028452460518836</v>
       </c>
       <c r="F8">
-        <v>0.9805393044003589</v>
+        <v>1.027265367172565</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044674280859463</v>
+        <v>1.035332697087422</v>
       </c>
       <c r="J8">
-        <v>1.024238094425208</v>
+        <v>1.033537422718713</v>
       </c>
       <c r="K8">
-        <v>1.031299545658291</v>
+        <v>1.036298362049544</v>
       </c>
       <c r="L8">
-        <v>1.019724798814754</v>
+        <v>1.031205236943965</v>
       </c>
       <c r="M8">
-        <v>0.9919894993663585</v>
+        <v>1.030021518092769</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9915438140339057</v>
+        <v>1.02631977997897</v>
       </c>
       <c r="D9">
-        <v>1.01195095205876</v>
+        <v>1.031879723389283</v>
       </c>
       <c r="E9">
-        <v>0.9997621153448193</v>
+        <v>1.026599344785222</v>
       </c>
       <c r="F9">
-        <v>0.9628525664556985</v>
+        <v>1.0236149366482</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04064329150842</v>
+        <v>1.034716937151585</v>
       </c>
       <c r="J9">
-        <v>1.017398757006642</v>
+        <v>1.032180373729709</v>
       </c>
       <c r="K9">
-        <v>1.024853064103228</v>
+        <v>1.035055800882851</v>
       </c>
       <c r="L9">
-        <v>1.012859053240929</v>
+        <v>1.029792896781966</v>
       </c>
       <c r="M9">
-        <v>0.9765785298043663</v>
+        <v>1.026818452567219</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9836707967801216</v>
+        <v>1.024862106045968</v>
       </c>
       <c r="D10">
-        <v>1.006013049204841</v>
+        <v>1.030758265516502</v>
       </c>
       <c r="E10">
-        <v>0.9935218535526706</v>
+        <v>1.025365225911733</v>
       </c>
       <c r="F10">
-        <v>0.9502687030111213</v>
+        <v>1.021179871528654</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037737803173017</v>
+        <v>1.034298766789389</v>
       </c>
       <c r="J10">
-        <v>1.012547605577346</v>
+        <v>1.031271782480321</v>
       </c>
       <c r="K10">
-        <v>1.020274578327581</v>
+        <v>1.034222697327133</v>
       </c>
       <c r="L10">
-        <v>1.008009066383617</v>
+        <v>1.02884925661699</v>
       </c>
       <c r="M10">
-        <v>0.9655979313213763</v>
+        <v>1.024679269998502</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9801473155375183</v>
+        <v>1.024230717670701</v>
       </c>
       <c r="D11">
-        <v>1.003359353591737</v>
+        <v>1.030272364074311</v>
       </c>
       <c r="E11">
-        <v>0.9907381330744868</v>
+        <v>1.024831147435685</v>
       </c>
       <c r="F11">
-        <v>0.9446020224137962</v>
+        <v>1.020125041885859</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03642298875736</v>
+        <v>1.034115875981356</v>
       </c>
       <c r="J11">
-        <v>1.010369963838366</v>
+        <v>1.030877425873767</v>
       </c>
       <c r="K11">
-        <v>1.018218194281772</v>
+        <v>1.033860831616492</v>
       </c>
       <c r="L11">
-        <v>1.005836854152173</v>
+        <v>1.028440155700228</v>
       </c>
       <c r="M11">
-        <v>0.960650161485989</v>
+        <v>1.023752011775769</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9788201776061849</v>
+        <v>1.023996160373102</v>
       </c>
       <c r="D12">
-        <v>1.002360458751254</v>
+        <v>1.030091833289079</v>
       </c>
       <c r="E12">
-        <v>0.9896910521096995</v>
+        <v>1.024632812542575</v>
       </c>
       <c r="F12">
-        <v>0.9424615643402917</v>
+        <v>1.019733159843322</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035925614921407</v>
+        <v>1.034047668579912</v>
       </c>
       <c r="J12">
-        <v>1.009548763489068</v>
+        <v>1.030730804068822</v>
       </c>
       <c r="K12">
-        <v>1.017442575391836</v>
+        <v>1.033726249178814</v>
       </c>
       <c r="L12">
-        <v>1.005018456695823</v>
+        <v>1.028288122337454</v>
       </c>
       <c r="M12">
-        <v>0.9587808649525003</v>
+        <v>1.023407434091709</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9791057040678489</v>
+        <v>1.024046475146766</v>
       </c>
       <c r="D13">
-        <v>1.002575335715731</v>
+        <v>1.030130559805678</v>
       </c>
       <c r="E13">
-        <v>0.9899162605524345</v>
+        <v>1.024675353984097</v>
       </c>
       <c r="F13">
-        <v>0.9429223608093837</v>
+        <v>1.019817223208011</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036032718348963</v>
+        <v>1.034062311682797</v>
       </c>
       <c r="J13">
-        <v>1.009725484445047</v>
+        <v>1.030762261294512</v>
       </c>
       <c r="K13">
-        <v>1.017609493429067</v>
+        <v>1.033755125237187</v>
       </c>
       <c r="L13">
-        <v>1.005194540045291</v>
+        <v>1.028320737409665</v>
       </c>
       <c r="M13">
-        <v>0.9591833023644024</v>
+        <v>1.023481354176991</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9800379956131339</v>
+        <v>1.024211329738275</v>
       </c>
       <c r="D14">
-        <v>1.003277058644274</v>
+        <v>1.030257442267768</v>
       </c>
       <c r="E14">
-        <v>0.990651852931253</v>
+        <v>1.024814752080172</v>
       </c>
       <c r="F14">
-        <v>0.9444258355786548</v>
+        <v>1.020092650288218</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036382062034247</v>
+        <v>1.034110243518676</v>
       </c>
       <c r="J14">
-        <v>1.010302339234463</v>
+        <v>1.030865308932007</v>
       </c>
       <c r="K14">
-        <v>1.018154326040561</v>
+        <v>1.033849710446977</v>
       </c>
       <c r="L14">
-        <v>1.005769444912625</v>
+        <v>1.028427590107409</v>
       </c>
       <c r="M14">
-        <v>0.960496302178639</v>
+        <v>1.023723532025188</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9806099413847292</v>
+        <v>1.024312897895187</v>
       </c>
       <c r="D15">
-        <v>1.003707639945721</v>
+        <v>1.030335612734222</v>
       </c>
       <c r="E15">
-        <v>0.9911033162587265</v>
+        <v>1.02490064589718</v>
       </c>
       <c r="F15">
-        <v>0.9453473667194761</v>
+        <v>1.020262340347859</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036596097616122</v>
+        <v>1.034139739644337</v>
       </c>
       <c r="J15">
-        <v>1.01065610133869</v>
+        <v>1.030928781392465</v>
       </c>
       <c r="K15">
-        <v>1.018488431859432</v>
+        <v>1.033907965063816</v>
       </c>
       <c r="L15">
-        <v>1.006122111250848</v>
+        <v>1.028493415628645</v>
       </c>
       <c r="M15">
-        <v>0.9613010355236195</v>
+        <v>1.023872725384396</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9839021306505266</v>
+        <v>1.024904004822816</v>
       </c>
       <c r="D16">
-        <v>1.006187361163983</v>
+        <v>1.03079050682739</v>
       </c>
       <c r="E16">
-        <v>0.9937048117542168</v>
+        <v>1.025400677335894</v>
       </c>
       <c r="F16">
-        <v>0.9506399550461183</v>
+        <v>1.02124986746034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037823828841702</v>
+        <v>1.034310866287268</v>
       </c>
       <c r="J16">
-        <v>1.01269044257877</v>
+        <v>1.031297934989692</v>
       </c>
       <c r="K16">
-        <v>1.020409440191744</v>
+        <v>1.034246689416343</v>
       </c>
       <c r="L16">
-        <v>1.00815165063267</v>
+        <v>1.028876396780085</v>
       </c>
       <c r="M16">
-        <v>0.9659220261801772</v>
+        <v>1.024740787975994</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9859358100572388</v>
+        <v>1.025274735022631</v>
       </c>
       <c r="D17">
-        <v>1.007720188823665</v>
+        <v>1.031075768908843</v>
       </c>
       <c r="E17">
-        <v>0.9953142493789903</v>
+        <v>1.025714415072168</v>
       </c>
       <c r="F17">
-        <v>0.9538996165394306</v>
+        <v>1.021869197193426</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038578448041805</v>
+        <v>1.034417722073953</v>
       </c>
       <c r="J17">
-        <v>1.01394539312409</v>
+        <v>1.031529245867326</v>
       </c>
       <c r="K17">
-        <v>1.021594195798828</v>
+        <v>1.034458860570037</v>
       </c>
       <c r="L17">
-        <v>1.00940493863667</v>
+        <v>1.029116497156257</v>
       </c>
       <c r="M17">
-        <v>0.9687673002132459</v>
+        <v>1.025285034801428</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9871110664112068</v>
+        <v>1.025490955846199</v>
       </c>
       <c r="D18">
-        <v>1.008606354298689</v>
+        <v>1.031242128232068</v>
       </c>
       <c r="E18">
-        <v>0.9962451885765301</v>
+        <v>1.025897442228874</v>
       </c>
       <c r="F18">
-        <v>0.955780120190256</v>
+        <v>1.022230400673474</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039013166331123</v>
+        <v>1.034479873624973</v>
       </c>
       <c r="J18">
-        <v>1.01467000365339</v>
+        <v>1.031664075826004</v>
       </c>
       <c r="K18">
-        <v>1.022278166266321</v>
+        <v>1.03458250774785</v>
       </c>
       <c r="L18">
-        <v>1.010129051251208</v>
+        <v>1.029256495557701</v>
       </c>
       <c r="M18">
-        <v>0.9704084497807752</v>
+        <v>1.025602390785901</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9875099741604314</v>
+        <v>1.025564678214112</v>
       </c>
       <c r="D19">
-        <v>1.008907195525625</v>
+        <v>1.031298847501256</v>
       </c>
       <c r="E19">
-        <v>0.9965613121836191</v>
+        <v>1.025959854716748</v>
       </c>
       <c r="F19">
-        <v>0.956417877174905</v>
+        <v>1.022353554961805</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039160485186475</v>
+        <v>1.034501035913339</v>
       </c>
       <c r="J19">
-        <v>1.01491584676716</v>
+        <v>1.031710034144033</v>
       </c>
       <c r="K19">
-        <v>1.022510201883562</v>
+        <v>1.034624649813668</v>
       </c>
       <c r="L19">
-        <v>1.010374803303245</v>
+        <v>1.02930422324368</v>
       </c>
       <c r="M19">
-        <v>0.9709649801530205</v>
+        <v>1.025710585209229</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9857187566801188</v>
+        <v>1.025234961235991</v>
       </c>
       <c r="D20">
-        <v>1.007556554266035</v>
+        <v>1.031045166008725</v>
       </c>
       <c r="E20">
-        <v>0.9951423863184785</v>
+        <v>1.025680750956715</v>
       </c>
       <c r="F20">
-        <v>0.9535520570973618</v>
+        <v>1.021802753270503</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038498050318011</v>
+        <v>1.034406275625564</v>
       </c>
       <c r="J20">
-        <v>1.013811517430164</v>
+        <v>1.031504437686521</v>
       </c>
       <c r="K20">
-        <v>1.021467819546899</v>
+        <v>1.03443610785424</v>
       </c>
       <c r="L20">
-        <v>1.009271192199211</v>
+        <v>1.029090741633043</v>
       </c>
       <c r="M20">
-        <v>0.9684639545865326</v>
+        <v>1.025226652029547</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9797639757877969</v>
+        <v>1.024162785045563</v>
       </c>
       <c r="D21">
-        <v>1.003070789705</v>
+        <v>1.030220079796126</v>
       </c>
       <c r="E21">
-        <v>0.9904356074255039</v>
+        <v>1.024773701554925</v>
       </c>
       <c r="F21">
-        <v>0.9439841073079128</v>
+        <v>1.020011545901315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036279441307138</v>
+        <v>1.03409613634182</v>
       </c>
       <c r="J21">
-        <v>1.010132816566034</v>
+        <v>1.030834967844609</v>
       </c>
       <c r="K21">
-        <v>1.017994217644582</v>
+        <v>1.033821862137905</v>
       </c>
       <c r="L21">
-        <v>1.00560047434782</v>
+        <v>1.028396126724805</v>
       </c>
       <c r="M21">
-        <v>0.960110546521365</v>
+        <v>1.023652220946443</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9759130777087764</v>
+        <v>1.023488482521963</v>
       </c>
       <c r="D22">
-        <v>1.000173623868083</v>
+        <v>1.029701052997205</v>
       </c>
       <c r="E22">
-        <v>0.9874001092500877</v>
+        <v>1.02420366764982</v>
       </c>
       <c r="F22">
-        <v>0.9377607003010533</v>
+        <v>1.018884926611476</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034832212725837</v>
+        <v>1.033899556359579</v>
       </c>
       <c r="J22">
-        <v>1.007748121648344</v>
+        <v>1.030413234216386</v>
       </c>
       <c r="K22">
-        <v>1.015741642020253</v>
+        <v>1.03343468128417</v>
       </c>
       <c r="L22">
-        <v>1.003225374089528</v>
+        <v>1.02795896035657</v>
       </c>
       <c r="M22">
-        <v>0.9546748889587904</v>
+        <v>1.022661427328569</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9779650649368875</v>
+        <v>1.023845960578084</v>
       </c>
       <c r="D23">
-        <v>1.001717030150092</v>
+        <v>1.029976223748947</v>
       </c>
       <c r="E23">
-        <v>0.9890167971804293</v>
+        <v>1.02450582835166</v>
       </c>
       <c r="F23">
-        <v>0.9410805825892118</v>
+        <v>1.019482210498729</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035604543648411</v>
+        <v>1.034003917233916</v>
       </c>
       <c r="J23">
-        <v>1.009019365089306</v>
+        <v>1.030636880232874</v>
       </c>
       <c r="K23">
-        <v>1.016942524107938</v>
+        <v>1.033640026152118</v>
       </c>
       <c r="L23">
-        <v>1.004491080600932</v>
+        <v>1.02819075175648</v>
       </c>
       <c r="M23">
-        <v>0.9575747306605135</v>
+        <v>1.02318675171167</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9858168675246096</v>
+        <v>1.02525293335914</v>
       </c>
       <c r="D24">
-        <v>1.007630518055836</v>
+        <v>1.031058994232184</v>
       </c>
       <c r="E24">
-        <v>0.9952200679395574</v>
+        <v>1.02569596223096</v>
       </c>
       <c r="F24">
-        <v>0.9537091683190186</v>
+        <v>1.021832776544583</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038534395359942</v>
+        <v>1.034411448325418</v>
       </c>
       <c r="J24">
-        <v>1.013872032847609</v>
+        <v>1.031515647712729</v>
       </c>
       <c r="K24">
-        <v>1.021524945356091</v>
+        <v>1.034446389162739</v>
       </c>
       <c r="L24">
-        <v>1.009331647756659</v>
+        <v>1.029102379593777</v>
       </c>
       <c r="M24">
-        <v>0.9686010802534486</v>
+        <v>1.025253032980122</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9945019988338272</v>
+        <v>1.026884871056713</v>
       </c>
       <c r="D25">
-        <v>1.014184831429796</v>
+        <v>1.032314342108266</v>
       </c>
       <c r="E25">
-        <v>1.002114196584016</v>
+        <v>1.027078193018232</v>
       </c>
       <c r="F25">
-        <v>0.9675555406485159</v>
+        <v>1.024558889811962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041722298813828</v>
+        <v>1.034877476583388</v>
       </c>
       <c r="J25">
-        <v>1.019215819975509</v>
+        <v>1.032531888495359</v>
       </c>
       <c r="K25">
-        <v>1.026566865758171</v>
+        <v>1.035377866268381</v>
       </c>
       <c r="L25">
-        <v>1.01467978079188</v>
+        <v>1.030158387123598</v>
       </c>
       <c r="M25">
-        <v>0.9806793003642671</v>
+        <v>1.027647170896795</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_210/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028185895818088</v>
+        <v>1.001123059880897</v>
       </c>
       <c r="D2">
-        <v>1.033314673539573</v>
+        <v>1.019189721827635</v>
       </c>
       <c r="E2">
-        <v>1.028181577463523</v>
+        <v>1.007393766300544</v>
       </c>
       <c r="F2">
-        <v>1.026732192368816</v>
+        <v>0.9780379752935826</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035243628196483</v>
+        <v>1.044109121426104</v>
       </c>
       <c r="J2">
-        <v>1.03333961427441</v>
+        <v>1.023270232229561</v>
       </c>
       <c r="K2">
-        <v>1.036117378245251</v>
+        <v>1.0303880332807</v>
       </c>
       <c r="L2">
-        <v>1.030999140757189</v>
+        <v>1.018751046378941</v>
       </c>
       <c r="M2">
-        <v>1.029553980392997</v>
+        <v>0.9898119992301451</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029130216393325</v>
+        <v>1.005769399294641</v>
       </c>
       <c r="D3">
-        <v>1.034040460955386</v>
+        <v>1.0227056155986</v>
       </c>
       <c r="E3">
-        <v>1.028983265508087</v>
+        <v>1.011111567319996</v>
       </c>
       <c r="F3">
-        <v>1.028309723001516</v>
+        <v>0.9853619451515272</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035506269172334</v>
+        <v>1.045758350049049</v>
       </c>
       <c r="J3">
-        <v>1.033924463486449</v>
+        <v>1.026104010832151</v>
       </c>
       <c r="K3">
-        <v>1.03665234238061</v>
+        <v>1.03305598827274</v>
       </c>
       <c r="L3">
-        <v>1.031608727094165</v>
+        <v>1.021604220618256</v>
       </c>
       <c r="M3">
-        <v>1.030937004167045</v>
+        <v>0.9961856134592885</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029741101974341</v>
+        <v>1.008706200884794</v>
       </c>
       <c r="D4">
-        <v>1.034509842357398</v>
+        <v>1.024929283317764</v>
       </c>
       <c r="E4">
-        <v>1.029502257531263</v>
+        <v>1.013467130436126</v>
       </c>
       <c r="F4">
-        <v>1.029330308996242</v>
+        <v>0.989979288580641</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035674727158372</v>
+        <v>1.046788665854407</v>
       </c>
       <c r="J4">
-        <v>1.034302147432106</v>
+        <v>1.027889792952828</v>
       </c>
       <c r="K4">
-        <v>1.036997581361546</v>
+        <v>1.034735863399299</v>
       </c>
       <c r="L4">
-        <v>1.032002766181187</v>
+        <v>1.023405691428204</v>
       </c>
       <c r="M4">
-        <v>1.031831258504808</v>
+        <v>1.000200178509809</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029997881914666</v>
+        <v>1.009924819176194</v>
       </c>
       <c r="D5">
-        <v>1.034707109708846</v>
+        <v>1.025852273731302</v>
       </c>
       <c r="E5">
-        <v>1.029720500419358</v>
+        <v>1.014445883442686</v>
       </c>
       <c r="F5">
-        <v>1.029759325292152</v>
+        <v>0.9918927873030469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035745190567728</v>
+        <v>1.047213255832718</v>
       </c>
       <c r="J5">
-        <v>1.034460745724082</v>
+        <v>1.028629500025874</v>
       </c>
       <c r="K5">
-        <v>1.037142499865465</v>
+        <v>1.035431347219204</v>
       </c>
       <c r="L5">
-        <v>1.032168323436851</v>
+        <v>1.024152721857024</v>
       </c>
       <c r="M5">
-        <v>1.032207051008634</v>
+        <v>1.001862969775331</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030040994272115</v>
+        <v>1.010128510270331</v>
       </c>
       <c r="D6">
-        <v>1.034740228201565</v>
+        <v>1.026006566285286</v>
       </c>
       <c r="E6">
-        <v>1.029757147790179</v>
+        <v>1.014609557605028</v>
       </c>
       <c r="F6">
-        <v>1.029831356943114</v>
+        <v>0.9922124937870809</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035757000788077</v>
+        <v>1.047284052117493</v>
       </c>
       <c r="J6">
-        <v>1.034487364521461</v>
+        <v>1.028753064738644</v>
       </c>
       <c r="K6">
-        <v>1.037166819419551</v>
+        <v>1.035547503325647</v>
       </c>
       <c r="L6">
-        <v>1.032196115551997</v>
+        <v>1.024277558225525</v>
       </c>
       <c r="M6">
-        <v>1.032270139444748</v>
+        <v>1.002140733885042</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02974453322301</v>
+        <v>1.008722546184857</v>
       </c>
       <c r="D7">
-        <v>1.03451247849195</v>
+        <v>1.024941662301341</v>
       </c>
       <c r="E7">
-        <v>1.029505173473401</v>
+        <v>1.013480253270022</v>
       </c>
       <c r="F7">
-        <v>1.029336041675722</v>
+        <v>0.99000496349851</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035675670094067</v>
+        <v>1.046794372520996</v>
       </c>
       <c r="J7">
-        <v>1.03430426733752</v>
+        <v>1.027899719778232</v>
       </c>
       <c r="K7">
-        <v>1.036999518634075</v>
+        <v>1.034745198174585</v>
       </c>
       <c r="L7">
-        <v>1.032004978745682</v>
+        <v>1.023415713278464</v>
       </c>
       <c r="M7">
-        <v>1.031836280454168</v>
+        <v>1.000222493118621</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028505065213616</v>
+        <v>1.002708159512816</v>
       </c>
       <c r="D8">
-        <v>1.033560008674356</v>
+        <v>1.020388849574265</v>
       </c>
       <c r="E8">
-        <v>1.028452460518836</v>
+        <v>1.008660880423467</v>
       </c>
       <c r="F8">
-        <v>1.027265367172565</v>
+        <v>0.9805393044003579</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035332697087422</v>
+        <v>1.044674280859462</v>
       </c>
       <c r="J8">
-        <v>1.033537422718713</v>
+        <v>1.024238094425207</v>
       </c>
       <c r="K8">
-        <v>1.036298362049544</v>
+        <v>1.03129954565829</v>
       </c>
       <c r="L8">
-        <v>1.031205236943965</v>
+        <v>1.019724798814753</v>
       </c>
       <c r="M8">
-        <v>1.030021518092769</v>
+        <v>0.9919894993663576</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02631977997897</v>
+        <v>0.9915438140339067</v>
       </c>
       <c r="D9">
-        <v>1.031879723389283</v>
+        <v>1.011950952058761</v>
       </c>
       <c r="E9">
-        <v>1.026599344785222</v>
+        <v>0.9997621153448202</v>
       </c>
       <c r="F9">
-        <v>1.0236149366482</v>
+        <v>0.9628525664556994</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034716937151585</v>
+        <v>1.040643291508421</v>
       </c>
       <c r="J9">
-        <v>1.032180373729709</v>
+        <v>1.017398757006643</v>
       </c>
       <c r="K9">
-        <v>1.035055800882851</v>
+        <v>1.024853064103229</v>
       </c>
       <c r="L9">
-        <v>1.029792896781966</v>
+        <v>1.01285905324093</v>
       </c>
       <c r="M9">
-        <v>1.026818452567219</v>
+        <v>0.9765785298043672</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024862106045968</v>
+        <v>0.9836707967801216</v>
       </c>
       <c r="D10">
-        <v>1.030758265516502</v>
+        <v>1.006013049204841</v>
       </c>
       <c r="E10">
-        <v>1.025365225911733</v>
+        <v>0.9935218535526704</v>
       </c>
       <c r="F10">
-        <v>1.021179871528654</v>
+        <v>0.9502687030111211</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034298766789389</v>
+        <v>1.037737803173016</v>
       </c>
       <c r="J10">
-        <v>1.031271782480321</v>
+        <v>1.012547605577345</v>
       </c>
       <c r="K10">
-        <v>1.034222697327133</v>
+        <v>1.020274578327581</v>
       </c>
       <c r="L10">
-        <v>1.02884925661699</v>
+        <v>1.008009066383617</v>
       </c>
       <c r="M10">
-        <v>1.024679269998502</v>
+        <v>0.9655979313213759</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024230717670701</v>
+        <v>0.9801473155375183</v>
       </c>
       <c r="D11">
-        <v>1.030272364074311</v>
+        <v>1.003359353591737</v>
       </c>
       <c r="E11">
-        <v>1.024831147435685</v>
+        <v>0.9907381330744865</v>
       </c>
       <c r="F11">
-        <v>1.020125041885859</v>
+        <v>0.9446020224137959</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034115875981356</v>
+        <v>1.03642298875736</v>
       </c>
       <c r="J11">
-        <v>1.030877425873767</v>
+        <v>1.010369963838366</v>
       </c>
       <c r="K11">
-        <v>1.033860831616492</v>
+        <v>1.018218194281772</v>
       </c>
       <c r="L11">
-        <v>1.028440155700228</v>
+        <v>1.005836854152173</v>
       </c>
       <c r="M11">
-        <v>1.023752011775769</v>
+        <v>0.9606501614859887</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023996160373102</v>
+        <v>0.9788201776061848</v>
       </c>
       <c r="D12">
-        <v>1.030091833289079</v>
+        <v>1.002360458751254</v>
       </c>
       <c r="E12">
-        <v>1.024632812542575</v>
+        <v>0.9896910521096992</v>
       </c>
       <c r="F12">
-        <v>1.019733159843322</v>
+        <v>0.9424615643402917</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034047668579912</v>
+        <v>1.035925614921408</v>
       </c>
       <c r="J12">
-        <v>1.030730804068822</v>
+        <v>1.009548763489068</v>
       </c>
       <c r="K12">
-        <v>1.033726249178814</v>
+        <v>1.017442575391836</v>
       </c>
       <c r="L12">
-        <v>1.028288122337454</v>
+        <v>1.005018456695823</v>
       </c>
       <c r="M12">
-        <v>1.023407434091709</v>
+        <v>0.9587808649525003</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024046475146766</v>
+        <v>0.9791057040678489</v>
       </c>
       <c r="D13">
-        <v>1.030130559805678</v>
+        <v>1.002575335715731</v>
       </c>
       <c r="E13">
-        <v>1.024675353984097</v>
+        <v>0.9899162605524345</v>
       </c>
       <c r="F13">
-        <v>1.019817223208011</v>
+        <v>0.9429223608093826</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034062311682797</v>
+        <v>1.036032718348963</v>
       </c>
       <c r="J13">
-        <v>1.030762261294512</v>
+        <v>1.009725484445047</v>
       </c>
       <c r="K13">
-        <v>1.033755125237187</v>
+        <v>1.017609493429066</v>
       </c>
       <c r="L13">
-        <v>1.028320737409665</v>
+        <v>1.005194540045291</v>
       </c>
       <c r="M13">
-        <v>1.023481354176991</v>
+        <v>0.9591833023644015</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024211329738275</v>
+        <v>0.9800379956131334</v>
       </c>
       <c r="D14">
-        <v>1.030257442267768</v>
+        <v>1.003277058644273</v>
       </c>
       <c r="E14">
-        <v>1.024814752080172</v>
+        <v>0.9906518529312527</v>
       </c>
       <c r="F14">
-        <v>1.020092650288218</v>
+        <v>0.9444258355786538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034110243518676</v>
+        <v>1.036382062034247</v>
       </c>
       <c r="J14">
-        <v>1.030865308932007</v>
+        <v>1.010302339234462</v>
       </c>
       <c r="K14">
-        <v>1.033849710446977</v>
+        <v>1.018154326040561</v>
       </c>
       <c r="L14">
-        <v>1.028427590107409</v>
+        <v>1.005769444912625</v>
       </c>
       <c r="M14">
-        <v>1.023723532025188</v>
+        <v>0.9604963021786384</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024312897895187</v>
+        <v>0.9806099413847283</v>
       </c>
       <c r="D15">
-        <v>1.030335612734222</v>
+        <v>1.00370763994572</v>
       </c>
       <c r="E15">
-        <v>1.02490064589718</v>
+        <v>0.9911033162587257</v>
       </c>
       <c r="F15">
-        <v>1.020262340347859</v>
+        <v>0.9453473667194752</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034139739644337</v>
+        <v>1.036596097616122</v>
       </c>
       <c r="J15">
-        <v>1.030928781392465</v>
+        <v>1.010656101338689</v>
       </c>
       <c r="K15">
-        <v>1.033907965063816</v>
+        <v>1.018488431859432</v>
       </c>
       <c r="L15">
-        <v>1.028493415628645</v>
+        <v>1.006122111250848</v>
       </c>
       <c r="M15">
-        <v>1.023872725384396</v>
+        <v>0.9613010355236185</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024904004822816</v>
+        <v>0.9839021306505259</v>
       </c>
       <c r="D16">
-        <v>1.03079050682739</v>
+        <v>1.006187361163982</v>
       </c>
       <c r="E16">
-        <v>1.025400677335894</v>
+        <v>0.993704811754216</v>
       </c>
       <c r="F16">
-        <v>1.02124986746034</v>
+        <v>0.950639955046118</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034310866287268</v>
+        <v>1.037823828841701</v>
       </c>
       <c r="J16">
-        <v>1.031297934989692</v>
+        <v>1.01269044257877</v>
       </c>
       <c r="K16">
-        <v>1.034246689416343</v>
+        <v>1.020409440191744</v>
       </c>
       <c r="L16">
-        <v>1.028876396780085</v>
+        <v>1.008151650632669</v>
       </c>
       <c r="M16">
-        <v>1.024740787975994</v>
+        <v>0.9659220261801768</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025274735022631</v>
+        <v>0.9859358100572382</v>
       </c>
       <c r="D17">
-        <v>1.031075768908843</v>
+        <v>1.007720188823664</v>
       </c>
       <c r="E17">
-        <v>1.025714415072168</v>
+        <v>0.9953142493789898</v>
       </c>
       <c r="F17">
-        <v>1.021869197193426</v>
+        <v>0.9538996165394295</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034417722073953</v>
+        <v>1.038578448041804</v>
       </c>
       <c r="J17">
-        <v>1.031529245867326</v>
+        <v>1.01394539312409</v>
       </c>
       <c r="K17">
-        <v>1.034458860570037</v>
+        <v>1.021594195798827</v>
       </c>
       <c r="L17">
-        <v>1.029116497156257</v>
+        <v>1.00940493863667</v>
       </c>
       <c r="M17">
-        <v>1.025285034801428</v>
+        <v>0.9687673002132448</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025490955846199</v>
+        <v>0.9871110664112062</v>
       </c>
       <c r="D18">
-        <v>1.031242128232068</v>
+        <v>1.008606354298688</v>
       </c>
       <c r="E18">
-        <v>1.025897442228874</v>
+        <v>0.9962451885765292</v>
       </c>
       <c r="F18">
-        <v>1.022230400673474</v>
+        <v>0.9557801201902554</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034479873624973</v>
+        <v>1.039013166331122</v>
       </c>
       <c r="J18">
-        <v>1.031664075826004</v>
+        <v>1.014670003653389</v>
       </c>
       <c r="K18">
-        <v>1.03458250774785</v>
+        <v>1.02227816626632</v>
       </c>
       <c r="L18">
-        <v>1.029256495557701</v>
+        <v>1.010129051251207</v>
       </c>
       <c r="M18">
-        <v>1.025602390785901</v>
+        <v>0.9704084497807747</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025564678214112</v>
+        <v>0.9875099741604324</v>
       </c>
       <c r="D19">
-        <v>1.031298847501256</v>
+        <v>1.008907195525626</v>
       </c>
       <c r="E19">
-        <v>1.025959854716748</v>
+        <v>0.9965613121836199</v>
       </c>
       <c r="F19">
-        <v>1.022353554961805</v>
+        <v>0.9564178771749056</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034501035913339</v>
+        <v>1.039160485186476</v>
       </c>
       <c r="J19">
-        <v>1.031710034144033</v>
+        <v>1.01491584676716</v>
       </c>
       <c r="K19">
-        <v>1.034624649813668</v>
+        <v>1.022510201883563</v>
       </c>
       <c r="L19">
-        <v>1.02930422324368</v>
+        <v>1.010374803303246</v>
       </c>
       <c r="M19">
-        <v>1.025710585209229</v>
+        <v>0.9709649801530212</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025234961235991</v>
+        <v>0.9857187566801187</v>
       </c>
       <c r="D20">
-        <v>1.031045166008725</v>
+        <v>1.007556554266035</v>
       </c>
       <c r="E20">
-        <v>1.025680750956715</v>
+        <v>0.9951423863184785</v>
       </c>
       <c r="F20">
-        <v>1.021802753270503</v>
+        <v>0.9535520570973613</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034406275625564</v>
+        <v>1.038498050318011</v>
       </c>
       <c r="J20">
-        <v>1.031504437686521</v>
+        <v>1.013811517430164</v>
       </c>
       <c r="K20">
-        <v>1.03443610785424</v>
+        <v>1.021467819546899</v>
       </c>
       <c r="L20">
-        <v>1.029090741633043</v>
+        <v>1.009271192199211</v>
       </c>
       <c r="M20">
-        <v>1.025226652029547</v>
+        <v>0.9684639545865321</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024162785045563</v>
+        <v>0.9797639757877966</v>
       </c>
       <c r="D21">
-        <v>1.030220079796126</v>
+        <v>1.003070789705</v>
       </c>
       <c r="E21">
-        <v>1.024773701554925</v>
+        <v>0.9904356074255031</v>
       </c>
       <c r="F21">
-        <v>1.020011545901315</v>
+        <v>0.9439841073079123</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03409613634182</v>
+        <v>1.036279441307137</v>
       </c>
       <c r="J21">
-        <v>1.030834967844609</v>
+        <v>1.010132816566033</v>
       </c>
       <c r="K21">
-        <v>1.033821862137905</v>
+        <v>1.017994217644581</v>
       </c>
       <c r="L21">
-        <v>1.028396126724805</v>
+        <v>1.005600474347819</v>
       </c>
       <c r="M21">
-        <v>1.023652220946443</v>
+        <v>0.9601105465213644</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023488482521963</v>
+        <v>0.9759130777087771</v>
       </c>
       <c r="D22">
-        <v>1.029701052997205</v>
+        <v>1.000173623868083</v>
       </c>
       <c r="E22">
-        <v>1.02420366764982</v>
+        <v>0.9874001092500885</v>
       </c>
       <c r="F22">
-        <v>1.018884926611476</v>
+        <v>0.9377607003010537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033899556359579</v>
+        <v>1.034832212725838</v>
       </c>
       <c r="J22">
-        <v>1.030413234216386</v>
+        <v>1.007748121648345</v>
       </c>
       <c r="K22">
-        <v>1.03343468128417</v>
+        <v>1.015741642020253</v>
       </c>
       <c r="L22">
-        <v>1.02795896035657</v>
+        <v>1.003225374089528</v>
       </c>
       <c r="M22">
-        <v>1.022661427328569</v>
+        <v>0.9546748889587909</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023845960578084</v>
+        <v>0.9779650649368878</v>
       </c>
       <c r="D23">
-        <v>1.029976223748947</v>
+        <v>1.001717030150092</v>
       </c>
       <c r="E23">
-        <v>1.02450582835166</v>
+        <v>0.98901679718043</v>
       </c>
       <c r="F23">
-        <v>1.019482210498729</v>
+        <v>0.9410805825892127</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034003917233916</v>
+        <v>1.035604543648412</v>
       </c>
       <c r="J23">
-        <v>1.030636880232874</v>
+        <v>1.009019365089307</v>
       </c>
       <c r="K23">
-        <v>1.033640026152118</v>
+        <v>1.016942524107938</v>
       </c>
       <c r="L23">
-        <v>1.02819075175648</v>
+        <v>1.004491080600932</v>
       </c>
       <c r="M23">
-        <v>1.02318675171167</v>
+        <v>0.957574730660514</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02525293335914</v>
+        <v>0.9858168675246103</v>
       </c>
       <c r="D24">
-        <v>1.031058994232184</v>
+        <v>1.007630518055836</v>
       </c>
       <c r="E24">
-        <v>1.02569596223096</v>
+        <v>0.9952200679395579</v>
       </c>
       <c r="F24">
-        <v>1.021832776544583</v>
+        <v>0.9537091683190189</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034411448325418</v>
+        <v>1.038534395359942</v>
       </c>
       <c r="J24">
-        <v>1.031515647712729</v>
+        <v>1.013872032847609</v>
       </c>
       <c r="K24">
-        <v>1.034446389162739</v>
+        <v>1.021524945356091</v>
       </c>
       <c r="L24">
-        <v>1.029102379593777</v>
+        <v>1.009331647756659</v>
       </c>
       <c r="M24">
-        <v>1.025253032980122</v>
+        <v>0.9686010802534486</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026884871056713</v>
+        <v>0.994501998833827</v>
       </c>
       <c r="D25">
-        <v>1.032314342108266</v>
+        <v>1.014184831429797</v>
       </c>
       <c r="E25">
-        <v>1.027078193018232</v>
+        <v>1.002114196584015</v>
       </c>
       <c r="F25">
-        <v>1.024558889811962</v>
+        <v>0.9675555406485158</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034877476583388</v>
+        <v>1.041722298813828</v>
       </c>
       <c r="J25">
-        <v>1.032531888495359</v>
+        <v>1.019215819975509</v>
       </c>
       <c r="K25">
-        <v>1.035377866268381</v>
+        <v>1.026566865758171</v>
       </c>
       <c r="L25">
-        <v>1.030158387123598</v>
+        <v>1.01467978079188</v>
       </c>
       <c r="M25">
-        <v>1.027647170896795</v>
+        <v>0.9806793003642671</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
